--- a/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.97152747107282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27.40198373112196</v>
+        <v>27.40198373112195</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.046770931647005</v>
@@ -664,7 +664,7 @@
         <v>12.77541193211975</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>26.99747884431736</v>
+        <v>26.99747884431735</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.346330714138876</v>
+        <v>-6.328333628929379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.586429241119542</v>
+        <v>5.939070586770709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21.58459945303063</v>
+        <v>21.31888469255749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7837242192298368</v>
+        <v>0.9158573846766095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.513840272270338</v>
+        <v>7.949747714190377</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.99112116504581</v>
+        <v>21.17478860016455</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.309644153550134</v>
+        <v>-1.642281556841426</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.84944132387159</v>
+        <v>8.857043837326998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>23.07899805650118</v>
+        <v>23.40069270532245</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.987271187365844</v>
+        <v>3.925657965884025</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.88416146368962</v>
+        <v>17.72593607805395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33.0043785216639</v>
+        <v>33.00597419896293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.25073221640046</v>
+        <v>11.10466995284886</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.26589972908119</v>
+        <v>18.86274867894951</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.4823307743452</v>
+        <v>30.86091742293448</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.267723963401356</v>
+        <v>5.798203665007389</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.44188939035975</v>
+        <v>16.79103409410366</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>30.54933267260264</v>
+        <v>30.74452203523189</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.5160263301589353</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.090486162450108</v>
+        <v>1.090486162450107</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2394513327981627</v>
+        <v>-0.2504388985987728</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2612585837454617</v>
+        <v>0.2277179906834532</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8025788306311331</v>
+        <v>0.8259089806572273</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02524919305159513</v>
+        <v>0.02671606418110316</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2646068140835969</v>
+        <v>0.2801585143308881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7503944286455304</v>
+        <v>0.7239402502318285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04997532823877917</v>
+        <v>-0.05916565055967482</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3330290737592946</v>
+        <v>0.326826407295528</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8750183562367482</v>
+        <v>0.8611626424880585</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1944256640343888</v>
+        <v>0.1887074855832202</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9002762111398138</v>
+        <v>0.8613887962071872</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.664224113343056</v>
+        <v>1.641308419560411</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4672812350016105</v>
+        <v>0.4752537483382867</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.822837458998037</v>
+        <v>0.8037059082533878</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.353347991364165</v>
+        <v>1.35042112769078</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2736043037181927</v>
+        <v>0.2580530873709688</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7179465498744951</v>
+        <v>0.7480105420933617</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.353652489034872</v>
+        <v>1.376496587336946</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.18226074777643</v>
+        <v>-4.878785406818219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.004195220509535</v>
+        <v>5.447351122289405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24.42373711016845</v>
+        <v>24.33837528091808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.259610579984109</v>
+        <v>-3.831490078421909</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.619484570717131</v>
+        <v>4.084096411679965</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.59388829896952</v>
+        <v>24.44365826339236</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.248790406780105</v>
+        <v>-2.894661936714425</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.107921302598134</v>
+        <v>6.231251308030862</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.93539141367721</v>
+        <v>26.26276849951237</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.247317801722648</v>
+        <v>4.954046477672119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.57944367148409</v>
+        <v>15.41282306642312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.67167664627177</v>
+        <v>34.52126579506212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.964281230618075</v>
+        <v>5.523768876061107</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.51747270440046</v>
+        <v>13.66166541771823</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>33.25533913563036</v>
+        <v>32.89586185511342</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.543077250401846</v>
+        <v>3.605740572911607</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.1069091027181</v>
+        <v>12.92466265697367</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>32.74822198641464</v>
+        <v>32.77829802912747</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1616838283593754</v>
+        <v>-0.1510870149059422</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1847169609033881</v>
+        <v>0.1681998543472079</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7313786095546444</v>
+        <v>0.7401207556924465</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1196247355872571</v>
+        <v>-0.1099444461681396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1032052540721068</v>
+        <v>0.1120740605158861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6876446581721531</v>
+        <v>0.6831937767382457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09867817018178925</v>
+        <v>-0.08904785460915819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1821741825817687</v>
+        <v>0.1818556524148881</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7720484560543788</v>
+        <v>0.7841289836662909</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1558344685351542</v>
+        <v>0.1750027997779906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5664163335647364</v>
+        <v>0.5643291800563002</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.254187591481234</v>
+        <v>1.264236188773275</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1601176492447619</v>
+        <v>0.1875686191559924</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4461162144587896</v>
+        <v>0.4587471289403157</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.117691760610332</v>
+        <v>1.108362226512014</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1218067926079934</v>
+        <v>0.1190003509977564</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4400862357057604</v>
+        <v>0.4308439685252418</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.106640895392261</v>
+        <v>1.111320785191013</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.25540513092795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25.4044179286074</v>
+        <v>25.40441792860741</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.704469805200029</v>
@@ -1083,7 +1083,7 @@
         <v>14.96884627861587</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.08259513150454</v>
+        <v>27.08259513150455</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.064537016195629</v>
@@ -1092,7 +1092,7 @@
         <v>12.67728479806833</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>26.26418209944333</v>
+        <v>26.26418209944332</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.159412972034468</v>
+        <v>-2.787293550994877</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.462643306647354</v>
+        <v>4.375795267925946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19.69186995725212</v>
+        <v>19.52521855493442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.605067200729398</v>
+        <v>-0.7753001285299158</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.917959892728641</v>
+        <v>9.295852972304321</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>22.08150422916179</v>
+        <v>22.14144485402238</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1221351378181703</v>
+        <v>0.378221354766441</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.730506390437212</v>
+        <v>8.670437831328551</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>22.4833984581039</v>
+        <v>22.36231884773033</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.625988454456335</v>
+        <v>8.776169908428901</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.49334372234249</v>
+        <v>16.08566687904551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31.7976388428603</v>
+        <v>31.36555678879771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.879376859055629</v>
+        <v>9.415194900592349</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>20.84841879418826</v>
+        <v>20.21027922983156</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.29658723875754</v>
+        <v>31.78287541923843</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.700376113745494</v>
+        <v>7.771292693984774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.53446333001201</v>
+        <v>16.76405971726679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.85474160085401</v>
+        <v>30.04572625726646</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3580221807828244</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8868830623657015</v>
+        <v>0.8868830623657018</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1693596455625011</v>
@@ -1188,7 +1188,7 @@
         <v>0.5388744332940101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9749661284496872</v>
+        <v>0.9749661284496876</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1441522571031585</v>
@@ -1197,7 +1197,7 @@
         <v>0.4496106715966373</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9314815231149818</v>
+        <v>0.9314815231149813</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06868945953820436</v>
+        <v>-0.08608059779672578</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1439028727144913</v>
+        <v>0.150473402007056</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6151872332664273</v>
+        <v>0.6116924621946728</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01834989373478371</v>
+        <v>-0.01785774796570106</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3318414036473745</v>
+        <v>0.3037361185081585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7188407038434927</v>
+        <v>0.7092142376638101</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004208684728920493</v>
+        <v>0.01278154304162601</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2923378199471154</v>
+        <v>0.2828751071738103</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7382993999256877</v>
+        <v>0.7410050859725377</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3340923538932719</v>
+        <v>0.3442691878443864</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6450675936084143</v>
+        <v>0.6382157334647008</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.255242899308881</v>
+        <v>1.257053176041718</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3999798816690565</v>
+        <v>0.3739669752318556</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8367148268130685</v>
+        <v>0.8017157816929802</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.311361091222464</v>
+        <v>1.272525956268584</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2902625799342742</v>
+        <v>0.2973794420176211</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6323956114858718</v>
+        <v>0.6371488555198156</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.15437833587688</v>
+        <v>1.152766770558818</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.07207874446451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26.41573413794145</v>
+        <v>26.41573413794144</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.597555563347608</v>
@@ -1297,7 +1297,7 @@
         <v>11.90858048018136</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.5721831025597</v>
+        <v>27.57218310255971</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.2239293437580225</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.08565051916583</v>
+        <v>-7.122745321324037</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.003579370148356</v>
+        <v>6.077538527590944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21.26682654794623</v>
+        <v>21.61354464483887</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.753057231987339</v>
+        <v>-3.254506367047263</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.672650309624614</v>
+        <v>6.941555700841377</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.2567867947931</v>
+        <v>23.35195294082844</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.609830410908945</v>
+        <v>-3.689841030128937</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.024637348206918</v>
+        <v>7.841674373885282</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>23.82724539422223</v>
+        <v>23.73207523501637</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.955188313506822</v>
+        <v>2.822447816561964</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.07348148947226</v>
+        <v>15.90671355886858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30.69483471885199</v>
+        <v>31.12601928655193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.515464951701294</v>
+        <v>6.473563692631848</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.55123825260802</v>
+        <v>16.6679980125928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.72243249616796</v>
+        <v>31.77789548747361</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.528343976182908</v>
+        <v>3.062385121757996</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.11951895648479</v>
+        <v>14.74304608671778</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>30.2262783226757</v>
+        <v>30.18663861271112</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3158710562330695</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7536042721422194</v>
+        <v>0.753604272142219</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04425774063933598</v>
@@ -1402,7 +1402,7 @@
         <v>0.3299083164094286</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7638435598798957</v>
+        <v>0.7638435598798959</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.006288476610634588</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1908357480810492</v>
+        <v>-0.1890195503176233</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1518163548040908</v>
+        <v>0.1650747181779418</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5664002708192994</v>
+        <v>0.581135961997116</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07491385033981965</v>
+        <v>-0.08357946059975808</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1738368886908226</v>
+        <v>0.1807040729850985</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5932820365588984</v>
+        <v>0.591928731302347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.096811531535565</v>
+        <v>-0.1008810215995327</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2126463404431373</v>
+        <v>0.2057174627589188</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6300351232323353</v>
+        <v>0.6278765356660316</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09142052665128791</v>
+        <v>0.08649380312095468</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4935506758188502</v>
+        <v>0.4934012186737567</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9524259576287808</v>
+        <v>0.9644284565067526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1953488006724825</v>
+        <v>0.1946393937393086</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4877858846958942</v>
+        <v>0.4952820736290272</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9487315690344843</v>
+        <v>0.9583441326853237</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1027436810788784</v>
+        <v>0.09079948582934602</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4477071415203205</v>
+        <v>0.4331930504709905</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9002255951644987</v>
+        <v>0.9009134998880655</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>10.96077028047301</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27.24706102998037</v>
+        <v>27.24706102998036</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.840190937754522</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.986401354059087</v>
+        <v>-3.109726968397379</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.434153162967473</v>
+        <v>8.084894410053913</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24.67938371366511</v>
+        <v>24.52121014934524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08584294004480326</v>
+        <v>0.4923614044392379</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.569213076029005</v>
+        <v>9.571278236136088</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>25.19770994791568</v>
+        <v>25.49706416398991</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5389628799924258</v>
+        <v>-0.4253841021150337</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.790156053392449</v>
+        <v>9.456115650191901</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>25.6570881737478</v>
+        <v>25.49658162986179</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.237600256996535</v>
+        <v>2.233453887469834</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.53367534097375</v>
+        <v>13.85095000118928</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29.96431004178175</v>
+        <v>29.74711541484886</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.2018683047173</v>
+        <v>5.510221240560943</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.52486469414761</v>
+        <v>14.6103380414761</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>30.0037407326218</v>
+        <v>30.10774572676463</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.032371001902225</v>
+        <v>3.143768630337587</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.48965465572812</v>
+        <v>13.27322966583507</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>29.13821238768484</v>
+        <v>29.15961315312502</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3676253119215862</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.9138691035189505</v>
+        <v>0.9138691035189501</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.0904832561266754</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09477794073343343</v>
+        <v>-0.09929597441232584</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.267121471624182</v>
+        <v>0.2597409707844093</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7894902557967135</v>
+        <v>0.7837417167330388</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0026110185075994</v>
+        <v>0.0151127906802426</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2926298172856577</v>
+        <v>0.2915246236617426</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7580072926600535</v>
+        <v>0.7773909037087836</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01688526440907688</v>
+        <v>-0.01361209765037586</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3098751597833988</v>
+        <v>0.2980681675536855</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8112721505948591</v>
+        <v>0.8054336061366234</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07941086313430842</v>
+        <v>0.07735026722038836</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4784521448663412</v>
+        <v>0.4836977132028131</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.07075635020895</v>
+        <v>1.050682829959299</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1726481391560424</v>
+        <v>0.1842439243137201</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4879332694249585</v>
+        <v>0.4840249756569617</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.006715183501915</v>
+        <v>1.006818238637177</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1027970343084434</v>
+        <v>0.105254948050358</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4545499032388818</v>
+        <v>0.4469609415093198</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9833298522034832</v>
+        <v>0.9878141947581437</v>
       </c>
     </row>
     <row r="34">
